--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu02TKKK.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu02TKKK.xlsx
@@ -274,8 +274,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0;\-0;;@"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -509,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -553,6 +554,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,62 +620,21 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -902,7 +913,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:O5"/>
+      <selection activeCell="D11" sqref="D11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2254,51 +2265,51 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="Q2" s="35" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2310,159 +2321,159 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="Q4" s="29" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="Q4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="Q5" s="29" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="Q5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31" t="s">
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="25" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="20" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="Q8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2484,15 +2495,15 @@
       <c r="K9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
@@ -2566,110 +2577,110 @@
       <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="Q11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="T11" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:20" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
@@ -2699,46 +2710,35 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:19" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="A18:S18"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="N12:T12"/>
@@ -2753,12 +2753,29 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A11:XFD11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($C11="TS",$C11="NNP",$C11="CSD",$C11="PNN")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>